--- a/public/uploads/Equipos y Camionetas Infraestructura.xlsx
+++ b/public/uploads/Equipos y Camionetas Infraestructura.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Contrato Infraestructura\Equipos\Mantenciones de Equipos\11.- Noviembre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD269B70-B71F-4458-9130-3A5F32B51285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -203,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -313,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -354,32 +366,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="hair">
         <color indexed="64"/>
       </top>
@@ -445,30 +431,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -535,17 +497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -579,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -587,115 +538,97 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -998,21 +931,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,841 +970,811 @@
       <c r="H1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="36"/>
-    </row>
-    <row r="3" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="2" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F2" s="13">
         <v>44834</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21">
+      <c r="H2" s="15"/>
+      <c r="I2" s="16">
         <v>108017</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J2" s="17">
         <v>101651</v>
       </c>
-      <c r="K3" s="23">
-        <f>+J3-I3</f>
+      <c r="K2" s="18">
+        <f>+J2-I2</f>
         <v>-6366</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="37">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="M2" s="31">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F3" s="8">
         <v>44684</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27">
+      <c r="H3" s="21"/>
+      <c r="I3" s="22">
         <v>20000</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J3" s="23">
         <v>15321</v>
       </c>
-      <c r="K4" s="29">
-        <f t="shared" ref="K4:K22" si="0">+J4-I4</f>
+      <c r="K3" s="24">
+        <f t="shared" ref="K3:K21" si="0">+J3-I3</f>
         <v>-4679</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="38">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="M3" s="32">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F4" s="8">
         <v>44600</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27">
+      <c r="H4" s="21"/>
+      <c r="I4" s="22">
         <v>25000</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J4" s="23">
         <v>23125</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K4" s="24">
         <f t="shared" si="0"/>
         <v>-1875</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L4" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="38">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="M4" s="32">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F5" s="8">
         <v>44615</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27">
+      <c r="H5" s="21"/>
+      <c r="I5" s="22">
         <v>20000</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J5" s="23">
         <v>15181</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K5" s="24">
         <f t="shared" si="0"/>
         <v>-4819</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="38">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="M5" s="32">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F6" s="8">
         <v>44831</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27">
+      <c r="H6" s="21"/>
+      <c r="I6" s="22">
         <v>30583</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J6" s="23">
         <v>22943</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K6" s="24">
         <f t="shared" si="0"/>
         <v>-7640</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L6" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="38">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="M6" s="32">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27">
+      <c r="F7" s="8"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22">
         <v>10000</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J7" s="23">
         <v>7120</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K7" s="24">
         <f t="shared" si="0"/>
         <v>-2880</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L7" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="38">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="M7" s="32">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F8" s="8">
         <v>44789</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27">
+      <c r="H8" s="21"/>
+      <c r="I8" s="22">
         <v>20000</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J8" s="23">
         <v>13438</v>
       </c>
-      <c r="K9" s="29">
-        <f>+J9-I9</f>
+      <c r="K8" s="24">
+        <f>+J8-I8</f>
         <v>-6562</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="38">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="M8" s="32">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27">
+      <c r="F9" s="8"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22">
         <v>10000</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J9" s="23">
         <v>6130</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K9" s="24">
         <f t="shared" si="0"/>
         <v>-3870</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="38">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="M9" s="32">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F10" s="8">
         <v>44603</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G10" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27">
+      <c r="H10" s="21"/>
+      <c r="I10" s="22">
         <v>20100</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J10" s="23">
         <v>18390</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K10" s="24">
         <f t="shared" si="0"/>
         <v>-1710</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L10" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="38">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="M10" s="32">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27">
+      <c r="F11" s="8"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22">
         <v>10000</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J11" s="23">
         <v>7575</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K11" s="24">
         <f t="shared" si="0"/>
         <v>-2425</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="38">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="M11" s="32">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27">
+      <c r="F12" s="8"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22">
         <v>10000</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J12" s="23">
         <v>5691</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K12" s="24">
         <f t="shared" si="0"/>
         <v>-4309</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L12" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="38">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="M12" s="32">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="6" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27">
+      <c r="F13" s="8"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22">
         <v>10000</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J13" s="23">
         <v>6855</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K13" s="24">
         <f t="shared" si="0"/>
         <v>-3145</v>
       </c>
-      <c r="L14" s="30" t="s">
+      <c r="L13" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="38">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="M13" s="32">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="6" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27">
+      <c r="F14" s="8"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22">
         <v>887</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J14" s="23">
         <v>712.4</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K14" s="27">
         <f t="shared" si="0"/>
         <v>-174.60000000000002</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="L14" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M15" s="38">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="M14" s="32">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="6" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27">
+      <c r="F15" s="8"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22">
         <v>1000</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J15" s="28">
         <v>915</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K15" s="27">
         <f t="shared" si="0"/>
         <v>-85</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L15" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="M16" s="38">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="M15" s="32">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="6" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F16" s="8">
         <v>44842</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G16" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27">
+      <c r="H16" s="21"/>
+      <c r="I16" s="22">
         <v>1255</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J16" s="23">
         <v>1033</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K16" s="27">
         <f t="shared" si="0"/>
         <v>-222</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L16" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="38">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="M16" s="32">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="6" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27">
+      <c r="F17" s="8"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22">
         <v>250</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J17" s="23">
         <v>135.19999999999999</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K17" s="27">
         <f t="shared" si="0"/>
         <v>-114.80000000000001</v>
       </c>
-      <c r="L18" s="25" t="s">
+      <c r="L17" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="38">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="M17" s="32">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="6" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F18" s="8">
         <v>44732</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G18" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27">
+      <c r="H18" s="21"/>
+      <c r="I18" s="22">
         <v>700</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J18" s="23">
         <v>608.1</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K18" s="27">
         <f t="shared" si="0"/>
         <v>-91.899999999999977</v>
       </c>
+      <c r="L18" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="32">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="8">
+        <v>44713</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22">
+        <v>523</v>
+      </c>
+      <c r="J19" s="23">
+        <v>508.9</v>
+      </c>
+      <c r="K19" s="27">
+        <f t="shared" si="0"/>
+        <v>-14.100000000000023</v>
+      </c>
       <c r="L19" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M19" s="38">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="M19" s="32">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="10">
-        <v>44713</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27">
-        <v>523</v>
-      </c>
-      <c r="J20" s="28">
-        <v>508.9</v>
-      </c>
-      <c r="K20" s="32">
-        <f t="shared" si="0"/>
-        <v>-14.100000000000023</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" s="38">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="10">
+      <c r="F20" s="8">
         <v>44725</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G20" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27">
+      <c r="H20" s="21"/>
+      <c r="I20" s="22">
         <v>876</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J20" s="23">
         <v>909.4</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K20" s="27">
         <f t="shared" si="0"/>
         <v>33.399999999999977</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L20" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="38">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="M20" s="32">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="6" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27">
+      <c r="F21" s="8"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22">
         <v>650</v>
       </c>
-      <c r="J22" s="28">
+      <c r="J21" s="23">
         <v>494.9</v>
       </c>
-      <c r="K22" s="32">
+      <c r="K21" s="27">
         <f t="shared" si="0"/>
         <v>-155.10000000000002</v>
       </c>
-      <c r="L22" s="31" t="s">
+      <c r="L21" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="M22" s="38">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>4600020368</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="M21" s="32">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>4600020368</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="27">
+      <c r="F22" s="8"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="22">
         <v>10000</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J22" s="28">
         <v>9618</v>
       </c>
-      <c r="K23" s="29">
-        <f>+J23-I23</f>
+      <c r="K22" s="24">
+        <f>+J22-I22</f>
         <v>-382</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="L22" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="M23" s="39" t="s">
+      <c r="M22" s="33" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="K3:K22">
+  <conditionalFormatting sqref="K2:K21">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="K22">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
